--- a/medicine/Enfance/Julian_Kornhauser/Julian_Kornhauser.xlsx
+++ b/medicine/Enfance/Julian_Kornhauser/Julian_Kornhauser.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Julian Kornhauser, né à Gliwice le 20 septembre 1946 (77 ans), est un écrivain et critique littéraire polonais, poète, romancier, essayiste, auteurs de livres pour enfants, spécialiste et traducteur de la littérature serbe et croate, cofondateur du groupe "Maintenant" (pl), professeur à l'université Jagellonne. Il est l'un des plus célèbres représentants des poètes de la Nouvelle vague (pl) des années 1970 en Pologne.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Julian Kornhauser est le fils d'un juif de Cracovie Jakub Kornhauser (1913-1972), déporté à Plaszow, Natzweiler, Neckarelz et Dachau et de sa femme Małgorzata Glombik (1914-1987), originaire de Chorzów (alors Königshütte) en Silésie.
 Après une scolarité au lycée de centre-ville de Gliwice (pl), il effectue ses études de serbo-croate à l'Université Jagellonne (maîtrise en 1970, doctorat en 1975). Il obtient son habilitation en 1982 et reçoit le titre de professeur de slavistique en 1996.
